--- a/data/trans_dic/P57_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P57_R-Edad-trans_dic.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,87; 9,15</t>
+          <t>3,88; 9,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,36; 7,6</t>
+          <t>1,35; 7,59</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,84; 9,81</t>
+          <t>4,71; 9,63</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,93; 12,74</t>
+          <t>3,89; 12,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,84; 8,33</t>
+          <t>4,93; 8,4</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,22; 8,04</t>
+          <t>3,1; 8,33</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,73; 16,55</t>
+          <t>10,18; 16,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,01; 11,48</t>
+          <t>4,97; 11,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,65; 13,77</t>
+          <t>8,64; 14,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,42; 9,5</t>
+          <t>4,62; 9,58</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>10,27; 14,12</t>
+          <t>10,36; 14,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,42; 9,32</t>
+          <t>5,77; 9,8</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,03; 17,41</t>
+          <t>12,04; 17,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,02; 11,26</t>
+          <t>5,97; 11,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,46; 16,68</t>
+          <t>11,32; 16,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,0; 9,64</t>
+          <t>6,07; 9,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,22; 16,26</t>
+          <t>12,34; 16,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,49; 9,63</t>
+          <t>6,61; 9,69</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>18,66; 25,72</t>
+          <t>18,87; 25,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,32; 12,52</t>
+          <t>7,51; 12,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>19,03; 25,74</t>
+          <t>18,71; 25,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,06; 17,66</t>
+          <t>13,18; 17,52</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,71; 24,62</t>
+          <t>19,8; 24,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,01; 14,5</t>
+          <t>10,8; 14,43</t>
         </is>
       </c>
     </row>
@@ -959,32 +959,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>15,93; 23,57</t>
+          <t>16,26; 23,82</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>18,27; 24,92</t>
+          <t>18,52; 24,93</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>29,08; 37,87</t>
+          <t>29,36; 38,24</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>23,03; 28,47</t>
+          <t>22,89; 28,58</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>23,88; 29,84</t>
+          <t>23,7; 29,77</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>21,55; 25,89</t>
+          <t>21,47; 25,79</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1039,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>29,72; 36,92</t>
+          <t>29,51; 36,66</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>21,88; 27,16</t>
+          <t>22,0; 27,21</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>39,74; 47,34</t>
+          <t>40,11; 47,63</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>18,36; 31,21</t>
+          <t>16,04; 31,09</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>36,22; 41,84</t>
+          <t>36,38; 41,91</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>20,62; 28,34</t>
+          <t>20,73; 28,54</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1119,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>17,29; 20,1</t>
+          <t>17,2; 19,9</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>12,49; 14,94</t>
+          <t>12,49; 14,93</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>22,03; 24,96</t>
+          <t>22,06; 24,93</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>15,26; 18,25</t>
+          <t>15,09; 18,21</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>20,09; 22,08</t>
+          <t>19,89; 22,07</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>14,53; 16,4</t>
+          <t>14,39; 16,34</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P57_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P57_R-Edad-trans_dic.xlsx
@@ -549,7 +549,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,88; 9,4</t>
+          <t>3,85; 8,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,71; 9,63</t>
+          <t>4,95; 9,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,93; 8,4</t>
+          <t>4,93; 8,54</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -719,7 +719,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,18; 16,11</t>
+          <t>10,13; 16,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,64; 14,15</t>
+          <t>8,74; 13,77</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>10,36; 14,03</t>
+          <t>10,16; 14,1</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,04; 17,27</t>
+          <t>11,82; 17,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -809,7 +809,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,32; 16,87</t>
+          <t>11,43; 16,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,34; 16,05</t>
+          <t>12,34; 16,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>18,87; 25,34</t>
+          <t>18,42; 25,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>18,71; 25,38</t>
+          <t>19,08; 25,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,8; 24,4</t>
+          <t>19,75; 24,67</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -959,7 +959,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>16,26; 23,82</t>
+          <t>15,89; 23,61</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -969,7 +969,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>29,36; 38,24</t>
+          <t>29,2; 37,91</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>23,7; 29,77</t>
+          <t>23,59; 29,57</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>29,51; 36,66</t>
+          <t>29,91; 37,13</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>40,11; 47,63</t>
+          <t>40,04; 47,6</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>36,38; 41,91</t>
+          <t>36,47; 41,59</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>17,2; 19,9</t>
+          <t>17,26; 19,87</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>22,06; 24,93</t>
+          <t>22,06; 24,97</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>19,89; 22,07</t>
+          <t>19,94; 22,08</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">

--- a/data/trans_dic/P57_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P57_R-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -521,7 +521,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con felicidad &lt;= 6 (Likert 0 a 10)</t>
+          <t>Población con autopercepción de la felicidad &lt;= 6 (Likert 0 a 10)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,85; 8,83</t>
+          <t>3,87; 9,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,35; 7,59</t>
+          <t>1,36; 7,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,95; 9,78</t>
+          <t>4,84; 9,81</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,89; 12,65</t>
+          <t>3,93; 12,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,93; 8,54</t>
+          <t>4,84; 8,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,1; 8,33</t>
+          <t>3,22; 8,04</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,13; 16,01</t>
+          <t>10,73; 16,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,97; 11,54</t>
+          <t>5,01; 11,48</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,74; 13,77</t>
+          <t>8,65; 13,77</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,62; 9,58</t>
+          <t>4,42; 9,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>10,16; 14,1</t>
+          <t>10,27; 14,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,77; 9,8</t>
+          <t>5,42; 9,32</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,82; 17,38</t>
+          <t>12,03; 17,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,97; 11,06</t>
+          <t>6,02; 11,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,43; 16,57</t>
+          <t>11,46; 16,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,07; 9,76</t>
+          <t>6,0; 9,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,34; 16,19</t>
+          <t>12,22; 16,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,61; 9,69</t>
+          <t>6,49; 9,63</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>18,42; 25,56</t>
+          <t>18,66; 25,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,51; 12,48</t>
+          <t>7,32; 12,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>19,08; 25,81</t>
+          <t>19,03; 25,74</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,18; 17,52</t>
+          <t>13,06; 17,66</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,75; 24,67</t>
+          <t>19,71; 24,62</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,8; 14,43</t>
+          <t>11,01; 14,5</t>
         </is>
       </c>
     </row>
@@ -959,32 +959,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>15,89; 23,61</t>
+          <t>15,93; 23,57</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>18,52; 24,93</t>
+          <t>18,27; 24,92</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>29,2; 37,91</t>
+          <t>29,08; 37,87</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>22,89; 28,58</t>
+          <t>23,03; 28,47</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>23,59; 29,57</t>
+          <t>23,88; 29,84</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>21,47; 25,79</t>
+          <t>21,55; 25,89</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1039,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>29,91; 37,13</t>
+          <t>29,72; 36,92</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>22,0; 27,21</t>
+          <t>21,88; 27,16</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>40,04; 47,6</t>
+          <t>39,74; 47,34</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>16,04; 31,09</t>
+          <t>18,36; 31,21</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>36,47; 41,59</t>
+          <t>36,22; 41,84</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>20,73; 28,54</t>
+          <t>20,62; 28,34</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1119,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>17,26; 19,87</t>
+          <t>17,29; 20,1</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>12,49; 14,93</t>
+          <t>12,49; 14,94</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>22,06; 24,97</t>
+          <t>22,03; 24,96</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>15,09; 18,21</t>
+          <t>15,26; 18,25</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>19,94; 22,08</t>
+          <t>20,09; 22,08</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>14,39; 16,34</t>
+          <t>14,53; 16,4</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P57_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P57_R-Edad-trans_dic.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +521,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con autopercepción de la felicidad &lt;= 6 (Likert 0 a 10)</t>
+          <t>Población con autopercepción de la felicidad menor o igual a 6 (Likert 0 a 10)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -606,7 +606,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,37%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,11%</t>
+          <t>6,95%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>4,86%</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,36; 7,6</t>
+          <t>1,3; 7,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,93; 12,74</t>
+          <t>3,8; 12,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -664,14 +664,14 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,22; 8,04</t>
+          <t>2,93; 7,58</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -686,7 +686,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,84%</t>
+          <t>7,92%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -696,17 +696,17 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>5,82%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>12,01%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>6,78%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>12,01%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>7,27%</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,01; 11,48</t>
+          <t>5,01; 11,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,42; 9,5</t>
+          <t>3,09; 8,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -744,14 +744,14 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,42; 9,32</t>
+          <t>4,68; 9,02</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,27%</t>
+          <t>8,02%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,69%</t>
+          <t>7,4%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>7,97%</t>
+          <t>7,71%</t>
         </is>
       </c>
     </row>
@@ -804,7 +804,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,02; 11,26</t>
+          <t>5,82; 10,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -814,7 +814,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,0; 9,64</t>
+          <t>5,75; 9,27</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -824,14 +824,14 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,49; 9,63</t>
+          <t>6,27; 9,31</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -846,7 +846,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10,0%</t>
+          <t>7,65%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>15,39%</t>
+          <t>14,5%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -866,7 +866,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>12,72%</t>
+          <t>10,68%</t>
         </is>
       </c>
     </row>
@@ -884,7 +884,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,32; 12,52</t>
+          <t>2,95; 11,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -894,7 +894,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,06; 17,66</t>
+          <t>11,8; 16,84</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -904,14 +904,14 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,01; 14,5</t>
+          <t>6,41; 13,18</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>21,62%</t>
+          <t>21,14%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -936,7 +936,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>25,61%</t>
+          <t>25,02%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -946,7 +946,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>23,61%</t>
+          <t>23,06%</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>18,27; 24,92</t>
+          <t>17,82; 24,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -974,7 +974,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>23,03; 28,47</t>
+          <t>22,51; 27,84</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -984,14 +984,14 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>21,55; 25,89</t>
+          <t>21,05; 25,28</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1001,32 +1001,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>33,14%</t>
+          <t>27,39%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>24,56%</t>
+          <t>18,76%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>43,58%</t>
+          <t>38,07%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>27,07%</t>
+          <t>16,57%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>39,07%</t>
+          <t>33,07%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>26,05%</t>
+          <t>17,39%</t>
         </is>
       </c>
     </row>
@@ -1039,39 +1039,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>29,72; 36,92</t>
+          <t>22,9; 33,11</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>21,88; 27,16</t>
+          <t>15,68; 21,81</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>39,74; 47,34</t>
+          <t>33,09; 43,07</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>18,36; 31,21</t>
+          <t>6,11; 25,81</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>36,22; 41,84</t>
+          <t>29,72; 36,59</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>20,62; 28,34</t>
+          <t>8,53; 22,78</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1081,32 +1081,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>18,52%</t>
+          <t>40,58%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>13,73%</t>
+          <t>30,88%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>23,47%</t>
+          <t>48,82%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>17,03%</t>
+          <t>34,37%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>21,05%</t>
+          <t>45,58%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>15,47%</t>
+          <t>32,97%</t>
         </is>
       </c>
     </row>
@@ -1119,44 +1119,124 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>35,07; 46,26</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>26,83; 34,85</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>42,74; 54,41</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>31,27; 37,59</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>41,55; 49,98</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>30,37; 35,57</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>18,52%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>12,46%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>23,47%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>15,76%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>21,05%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>14,16%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>17,29; 20,1</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>12,49; 14,94</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>9,92; 13,94</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>22,03; 24,96</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>15,26; 18,25</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>12,79; 17,28</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>20,09; 22,08</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>14,53; 16,4</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>12,43; 15,38</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
@@ -1167,6 +1247,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P57_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P57_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,87; 9,15</t>
+          <t>3,99; 8,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,3; 7,71</t>
+          <t>1,32; 7,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,84; 9,81</t>
+          <t>4,73; 9,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,8; 12,48</t>
+          <t>3,98; 12,03</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,84; 8,33</t>
+          <t>4,84; 8,54</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,93; 7,58</t>
+          <t>3,11; 7,48</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,73; 16,55</t>
+          <t>10,16; 15,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,01; 11,59</t>
+          <t>4,81; 11,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,65; 13,77</t>
+          <t>8,59; 13,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,09; 8,21</t>
+          <t>3,36; 8,63</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>10,27; 14,12</t>
+          <t>10,21; 14,18</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,68; 9,02</t>
+          <t>4,75; 9,1</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,03; 17,41</t>
+          <t>11,84; 17,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,82; 10,95</t>
+          <t>5,97; 10,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,46; 16,68</t>
+          <t>11,31; 16,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,75; 9,27</t>
+          <t>5,75; 9,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,22; 16,26</t>
+          <t>12,42; 16,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,27; 9,31</t>
+          <t>6,33; 9,38</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>18,66; 25,72</t>
+          <t>18,88; 25,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,95; 11,42</t>
+          <t>3,55; 11,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>19,03; 25,74</t>
+          <t>18,85; 25,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,8; 16,84</t>
+          <t>11,82; 16,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,71; 24,62</t>
+          <t>19,61; 24,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,41; 13,18</t>
+          <t>6,02; 12,96</t>
         </is>
       </c>
     </row>
@@ -959,32 +960,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>15,93; 23,57</t>
+          <t>15,99; 23,7</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>17,82; 24,43</t>
+          <t>18,17; 24,34</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>29,08; 37,87</t>
+          <t>29,7; 37,91</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>22,51; 27,84</t>
+          <t>22,01; 27,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>23,88; 29,84</t>
+          <t>23,66; 29,53</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>21,05; 25,28</t>
+          <t>21,08; 25,3</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1040,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>22,9; 33,11</t>
+          <t>22,9; 32,61</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>15,68; 21,81</t>
+          <t>15,5; 22,08</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>33,09; 43,07</t>
+          <t>33,23; 43,39</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,11; 25,81</t>
+          <t>6,82; 25,88</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>29,72; 36,59</t>
+          <t>29,4; 36,54</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>8,53; 22,78</t>
+          <t>9,58; 22,69</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1120,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>35,07; 46,26</t>
+          <t>35,45; 46,1</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>26,83; 34,85</t>
+          <t>26,81; 35,53</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>42,74; 54,41</t>
+          <t>42,85; 54,52</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>31,27; 37,59</t>
+          <t>31,39; 37,78</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>41,55; 49,98</t>
+          <t>41,41; 49,86</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>30,37; 35,57</t>
+          <t>30,35; 35,61</t>
         </is>
       </c>
     </row>
@@ -1199,32 +1200,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>17,29; 20,1</t>
+          <t>17,16; 19,78</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>9,92; 13,94</t>
+          <t>9,79; 13,88</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>22,03; 24,96</t>
+          <t>22,11; 25,03</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>12,79; 17,28</t>
+          <t>12,85; 17,37</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>20,09; 22,08</t>
+          <t>20,07; 22,14</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>12,43; 15,38</t>
+          <t>12,3; 15,33</t>
         </is>
       </c>
     </row>
@@ -1252,4 +1253,1071 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con autopercepción de la felicidad menor o igual a 6 (Likert 0 a 10)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>25252</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>12926</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>27312</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>21753</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>52564</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>34678</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>16727; 37616</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>5266; 28149</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>18579; 37956</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>12451; 37680</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>39325; 69399</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>22204; 53361</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>75801</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>33559</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>61749</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>29730</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>137550</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>63289</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>59549; 93133</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>20380; 50750</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>48024; 75941</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>17151; 44084</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>116857; 162418</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>44404; 85038</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>95957</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>43035</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>91610</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>40113</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>187567</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>83148</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>78878; 116527</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>32028; 58025</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>74694; 110877</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>31133; 51618</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>164790; 214761</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>68212; 101074</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>140455</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>67877</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>143154</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>102520</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>283609</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>170396</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>121359; 165278</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>31558; 102612</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>121720; 165974</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>83539; 119329</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>252703; 313842</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>95969; 206754</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>384</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>93311</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>117833</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>166682</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>136337</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>259993</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>254169</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>76263; 112992</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>101317; 135665</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>147255; 187961</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>119917; 151241</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>230140; 287201</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>232377; 278899</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>308</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>91039</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>68661</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>143812</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>100624</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>234850</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>169284</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>76108; 108382</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>56732; 80798</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>125521; 163895</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>41397; 157151</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>208747; 259483</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>93272; 220867</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>104278</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>85986</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>193584</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>142774</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>297862</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>228761</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>91108; 118478</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>74654; 98951</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>169882; 216171</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>130404; 156966</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>270623; 325858</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>210595; 247083</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>604</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>555</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>744</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>1020</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>1348</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>1575</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>626093</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>429876</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>827903</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>573850</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>1453996</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>1003726</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>580009; 668542</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>337766; 478937</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>780032; 882980</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>467756; 632423</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>1386274; 1529294</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>872095; 1086800</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>